--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thpo-Mpl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thpo-Mpl.xlsx
@@ -540,40 +540,40 @@
         <v>2.900409</v>
       </c>
       <c r="I2">
-        <v>0.5902111213060792</v>
+        <v>0.5633756828510093</v>
       </c>
       <c r="J2">
-        <v>0.5902111213060792</v>
+        <v>0.5633756828510093</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5953510000000001</v>
+        <v>1.309024333333333</v>
       </c>
       <c r="N2">
-        <v>1.786053</v>
+        <v>3.927073</v>
       </c>
       <c r="O2">
-        <v>0.883857363708884</v>
+        <v>0.9436068997599097</v>
       </c>
       <c r="P2">
-        <v>0.883857363708884</v>
+        <v>0.9436068997599097</v>
       </c>
       <c r="Q2">
-        <v>0.575587132853</v>
+        <v>1.265568652539666</v>
       </c>
       <c r="R2">
-        <v>5.180284195677</v>
+        <v>11.390117872857</v>
       </c>
       <c r="S2">
-        <v>0.5216624457092556</v>
+        <v>0.531605181495163</v>
       </c>
       <c r="T2">
-        <v>0.5216624457092556</v>
+        <v>0.531605181495163</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>2.900409</v>
       </c>
       <c r="I3">
-        <v>0.5902111213060792</v>
+        <v>0.5633756828510093</v>
       </c>
       <c r="J3">
-        <v>0.5902111213060792</v>
+        <v>0.5633756828510093</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.234695</v>
       </c>
       <c r="O3">
-        <v>0.1161426362911159</v>
+        <v>0.05639310024009027</v>
       </c>
       <c r="P3">
-        <v>0.1161426362911159</v>
+        <v>0.05639310024009028</v>
       </c>
       <c r="Q3">
         <v>0.07563461002833333</v>
@@ -632,10 +632,10 @@
         <v>0.6807114902549999</v>
       </c>
       <c r="S3">
-        <v>0.06854867559682366</v>
+        <v>0.03177050135584627</v>
       </c>
       <c r="T3">
-        <v>0.06854867559682368</v>
+        <v>0.03177050135584628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6712599999999999</v>
+        <v>0.7492863333333334</v>
       </c>
       <c r="H4">
-        <v>2.01378</v>
+        <v>2.247859</v>
       </c>
       <c r="I4">
-        <v>0.4097888786939208</v>
+        <v>0.4366243171489907</v>
       </c>
       <c r="J4">
-        <v>0.4097888786939208</v>
+        <v>0.4366243171489907</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5953510000000001</v>
+        <v>1.309024333333333</v>
       </c>
       <c r="N4">
-        <v>1.786053</v>
+        <v>3.927073</v>
       </c>
       <c r="O4">
-        <v>0.883857363708884</v>
+        <v>0.9436068997599097</v>
       </c>
       <c r="P4">
-        <v>0.883857363708884</v>
+        <v>0.9436068997599097</v>
       </c>
       <c r="Q4">
-        <v>0.39963531226</v>
+        <v>0.9808340429674444</v>
       </c>
       <c r="R4">
-        <v>3.596717810339999</v>
+        <v>8.827506386706998</v>
       </c>
       <c r="S4">
-        <v>0.3621949179996285</v>
+        <v>0.4120017182647467</v>
       </c>
       <c r="T4">
-        <v>0.3621949179996285</v>
+        <v>0.4120017182647467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6712599999999999</v>
+        <v>0.7492863333333334</v>
       </c>
       <c r="H5">
-        <v>2.01378</v>
+        <v>2.247859</v>
       </c>
       <c r="I5">
-        <v>0.4097888786939208</v>
+        <v>0.4366243171489907</v>
       </c>
       <c r="J5">
-        <v>0.4097888786939208</v>
+        <v>0.4366243171489907</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,22 +744,22 @@
         <v>0.234695</v>
       </c>
       <c r="O5">
-        <v>0.1161426362911159</v>
+        <v>0.05639310024009027</v>
       </c>
       <c r="P5">
-        <v>0.1161426362911159</v>
+        <v>0.05639310024009028</v>
       </c>
       <c r="Q5">
-        <v>0.05251378856666665</v>
+        <v>0.05861791866722222</v>
       </c>
       <c r="R5">
-        <v>0.4726240970999999</v>
+        <v>0.527561268005</v>
       </c>
       <c r="S5">
-        <v>0.04759396069429227</v>
+        <v>0.024622598884244</v>
       </c>
       <c r="T5">
-        <v>0.04759396069429227</v>
+        <v>0.024622598884244</v>
       </c>
     </row>
   </sheetData>
